--- a/Activity1.xlsx
+++ b/Activity1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joyce Ann\Desktop\TESTCASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614A86D3-A0BD-40A1-A241-C00C662FFFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F24B0D0-7AB2-41BD-AE4F-4A629CC47616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EP and BVA" sheetId="1" r:id="rId1"/>
@@ -546,10 +546,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -559,31 +574,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1056,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1084,10 +1084,10 @@
     <row r="7" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="13"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D10" s="3" t="s">
@@ -1127,10 +1127,10 @@
     <row r="14" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="13"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D17" s="7" t="s">
@@ -1193,10 +1193,10 @@
     <row r="40" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="4:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="13"/>
+      <c r="E42" s="19"/>
     </row>
     <row r="43" spans="4:5" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D43" s="3" t="s">
@@ -1207,7 +1207,7 @@
       </c>
     </row>
     <row r="44" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D44" s="27" t="s">
+      <c r="D44" s="17" t="s">
         <v>24</v>
       </c>
       <c r="E44" s="6" t="s">
@@ -1240,10 +1240,10 @@
     </row>
     <row r="48" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="13"/>
+      <c r="E49" s="19"/>
     </row>
     <row r="50" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D50" s="7" t="s">
@@ -1254,7 +1254,7 @@
       </c>
     </row>
     <row r="51" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D51" s="27" t="s">
+      <c r="D51" s="17" t="s">
         <v>48</v>
       </c>
       <c r="E51" s="6" t="s">
@@ -1262,7 +1262,7 @@
       </c>
     </row>
     <row r="52" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D52" s="27" t="s">
+      <c r="D52" s="17" t="s">
         <v>49</v>
       </c>
       <c r="E52" s="6" t="s">
@@ -1270,7 +1270,7 @@
       </c>
     </row>
     <row r="53" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="27" t="s">
+      <c r="D53" s="17" t="s">
         <v>50</v>
       </c>
       <c r="E53" s="6" t="s">
@@ -1278,7 +1278,7 @@
       </c>
     </row>
     <row r="54" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D54" s="27" t="s">
+      <c r="D54" s="17" t="s">
         <v>52</v>
       </c>
       <c r="E54" s="6" t="s">
@@ -1286,7 +1286,7 @@
       </c>
     </row>
     <row r="55" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D55" s="27" t="s">
+      <c r="D55" s="17" t="s">
         <v>51</v>
       </c>
       <c r="E55" s="6" t="s">
@@ -1294,7 +1294,7 @@
       </c>
     </row>
     <row r="56" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D56" s="27" t="s">
+      <c r="D56" s="17" t="s">
         <v>53</v>
       </c>
       <c r="E56" s="6" t="s">
@@ -1302,7 +1302,7 @@
       </c>
     </row>
     <row r="57" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D57" s="27" t="s">
+      <c r="D57" s="17" t="s">
         <v>54</v>
       </c>
       <c r="E57" s="6" t="s">
@@ -2289,82 +2289,82 @@
     <row r="3" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="20" t="s">
+      <c r="M7" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="20" t="s">
+      <c r="M8" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L9" s="19" t="s">
+      <c r="L9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="M9" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="20" t="s">
+      <c r="M10" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L11" s="19" t="s">
+      <c r="L11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="M11" s="20" t="s">
+      <c r="M11" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L12" s="19" t="s">
+      <c r="L12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="M12" s="20" t="s">
+      <c r="M12" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L13" s="19" t="s">
+      <c r="L13" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="M13" s="20" t="s">
+      <c r="M13" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L14" s="19" t="s">
+      <c r="L14" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="M14" s="20" t="s">
+      <c r="M14" s="13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
   <dimension ref="B1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3404,55 +3404,55 @@
     <row r="13" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17" t="s">
+      <c r="E15" s="23"/>
+      <c r="F15" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="18"/>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="2:15" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="25" t="s">
+      <c r="E16" s="15"/>
+      <c r="F16" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="26"/>
+      <c r="G16" s="27"/>
     </row>
     <row r="17" spans="4:8" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="28" t="s">
+      <c r="E17" s="21"/>
+      <c r="F17" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="26"/>
-      <c r="H17" s="24"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" spans="4:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="28" t="s">
+      <c r="E18" s="21"/>
+      <c r="F18" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="26"/>
+      <c r="G18" s="27"/>
     </row>
     <row r="19" spans="4:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="28" t="s">
+      <c r="E19" s="21"/>
+      <c r="F19" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="26"/>
+      <c r="G19" s="27"/>
     </row>
     <row r="20" spans="4:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="4:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
